--- a/Assignments/Assignment 1/Q4.xlsx
+++ b/Assignments/Assignment 1/Q4.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iman\Downloads\Reposetories\CE634-CS\Assignments\Assignment 1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A02CC2-511A-4C88-A952-FF6035679903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,36 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>load time</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +76,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +360,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="F3:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="8.796875" style="1"/>
+    <col min="6" max="12" width="12.69921875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assignments/Assignment 1/Q4.xlsx
+++ b/Assignments/Assignment 1/Q4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iman\Downloads\Reposetories\CE634-CS\Assignments\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A02CC2-511A-4C88-A952-FF6035679903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55E6972-A682-4DB6-AAD5-A6CEA1728915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Demand</t>
   </si>
@@ -34,6 +34,33 @@
   </si>
   <si>
     <t>load time</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Cycle Day</t>
+  </si>
+  <si>
+    <t>Cucle Number</t>
+  </si>
+  <si>
+    <t>Remaining at first</t>
+  </si>
+  <si>
+    <t>Remaining at last</t>
+  </si>
+  <si>
+    <t>Shortage</t>
+  </si>
+  <si>
+    <t>Count days so that orders come</t>
+  </si>
+  <si>
+    <t>Orders Today</t>
+  </si>
+  <si>
+    <t>Order</t>
   </si>
 </sst>
 </file>
@@ -56,15 +83,33 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -72,13 +117,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -361,82 +430,522 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F3:J7"/>
+  <dimension ref="F1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="8.796875" style="1"/>
-    <col min="6" max="12" width="12.69921875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="1"/>
+    <col min="6" max="14" width="12.69921875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.69921875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.69921875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.69921875" style="1" customWidth="1"/>
+    <col min="18" max="19" width="12.69921875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="28.69921875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.69921875" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F3" s="1" t="s">
+    <row r="1" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="L1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="L2" s="4">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F4" s="1">
+      <c r="M2" s="4">
+        <v>4</v>
+      </c>
+      <c r="N2" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="1">
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>3</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>3</v>
+      </c>
+      <c r="T2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4">
+        <v>3</v>
+      </c>
+      <c r="P3" s="4">
+        <v>68</v>
+      </c>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>0.1</v>
       </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="L4" s="4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="4">
+        <v>2</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
         <v>0.25</v>
       </c>
-      <c r="I5" s="1">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I5" s="3">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="6" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="L5" s="4">
+        <v>3</v>
+      </c>
+      <c r="M5" s="4">
+        <v>3</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4">
+        <v>83</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
         <v>0.45</v>
       </c>
-      <c r="I6" s="1">
-        <v>3</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="I6" s="3">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F7" s="1">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="L6" s="4">
+        <v>4</v>
+      </c>
+      <c r="M6" s="4">
+        <v>4</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
         <v>0.2</v>
       </c>
+      <c r="L7" s="4">
+        <v>5</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="L8" s="4">
+        <v>6</v>
+      </c>
+      <c r="M8" s="4">
+        <v>2</v>
+      </c>
+      <c r="N8" s="4">
+        <v>2</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="L9" s="4">
+        <v>7</v>
+      </c>
+      <c r="M9" s="4">
+        <v>3</v>
+      </c>
+      <c r="N9" s="4">
+        <v>2</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="L10" s="4">
+        <v>8</v>
+      </c>
+      <c r="M10" s="4">
+        <v>4</v>
+      </c>
+      <c r="N10" s="4">
+        <v>2</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="L11" s="4">
+        <v>9</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4">
+        <v>3</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="L12" s="4">
+        <v>10</v>
+      </c>
+      <c r="M12" s="4">
+        <v>2</v>
+      </c>
+      <c r="N12" s="4">
+        <v>3</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4">
+        <v>48</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="L13" s="4">
+        <v>11</v>
+      </c>
+      <c r="M13" s="4">
+        <v>3</v>
+      </c>
+      <c r="N13" s="4">
+        <v>3</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4">
+        <v>58</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="L14" s="4">
+        <v>12</v>
+      </c>
+      <c r="M14" s="4">
+        <v>4</v>
+      </c>
+      <c r="N14" s="4">
+        <v>3</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="L15" s="4">
+        <v>13</v>
+      </c>
+      <c r="M15" s="4">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4">
+        <v>4</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="L16" s="4">
+        <v>14</v>
+      </c>
+      <c r="M16" s="4">
+        <v>2</v>
+      </c>
+      <c r="N16" s="4">
+        <v>4</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4">
+        <v>48</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+    </row>
+    <row r="17" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L17" s="4">
+        <v>15</v>
+      </c>
+      <c r="M17" s="4">
+        <v>3</v>
+      </c>
+      <c r="N17" s="4">
+        <v>4</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L18" s="4">
+        <v>16</v>
+      </c>
+      <c r="M18" s="4">
+        <v>4</v>
+      </c>
+      <c r="N18" s="4">
+        <v>4</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4">
+        <v>57</v>
+      </c>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+    </row>
+    <row r="19" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L19" s="4">
+        <v>17</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4">
+        <v>5</v>
+      </c>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L20" s="4">
+        <v>18</v>
+      </c>
+      <c r="M20" s="4">
+        <v>2</v>
+      </c>
+      <c r="N20" s="4">
+        <v>5</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4">
+        <v>89</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+    </row>
+    <row r="21" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L21" s="4">
+        <v>19</v>
+      </c>
+      <c r="M21" s="4">
+        <v>3</v>
+      </c>
+      <c r="N21" s="4">
+        <v>5</v>
+      </c>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4">
+        <v>84</v>
+      </c>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L22" s="4">
+        <v>20</v>
+      </c>
+      <c r="M22" s="4">
+        <v>4</v>
+      </c>
+      <c r="N22" s="4">
+        <v>5</v>
+      </c>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4">
+        <v>51</v>
+      </c>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
